--- a/DataTestGeneration/testData.xlsx
+++ b/DataTestGeneration/testData.xlsx
@@ -424,1782 +424,1782 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Paula Marshall</t>
+          <t>David Perry</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ralpholsen@example.org</t>
+          <t>stephanie27@example.com</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Unit 6166 Box 6297
-DPO AE 73795</t>
+          <t>29187 Amanda Ways
+Sandovalfort, WI 49730</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Debra Jacobson</t>
+          <t>Ann Gonzalez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pwalker@example.org</t>
+          <t>zharmon@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>525 Benson Fork Apt. 146
-New Christophermouth, OK 69904</t>
+          <t>45848 Lawrence Summit
+Port Russellhaven, NE 11762</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ivan Perez</t>
+          <t>Tamara Parsons</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mary11@example.org</t>
+          <t>cooknathan@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46317 Choi Fall Suite 929
-Gonzalezport, KY 38761</t>
+          <t>1588 Zachary Drive
+North Cheryl, SD 28288</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael Wilson</t>
+          <t>Destiny Munoz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>johngomez@example.net</t>
+          <t>michael99@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1513 Velez Path Suite 144
-Mcdonaldmouth, PA 35873</t>
+          <t>6501 Bentley Parkways
+Jenniferberg, NY 19754</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>William Ryan</t>
+          <t>Gregory Morales</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>david93@example.net</t>
+          <t>colemanmaria@example.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>USNS Jones
-FPO AE 84877</t>
+          <t>04425 Washington Islands
+New Lauriebury, SC 01006</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brenda Pace</t>
+          <t>Joyce Mcbride</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jenniferlewis@example.com</t>
+          <t>roberthill@example.org</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>86565 Keller Rapid Suite 578
-Velazquezborough, CT 40409</t>
+          <t>26535 Samantha Inlet
+Lewisview, PA 78595</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mark Carson</t>
+          <t>Mark Townsend</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>elizabeth63@example.net</t>
+          <t>richard50@example.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0772 Burke Shore
-Josephchester, SC 54690</t>
+          <t>45662 William Station Apt. 950
+Danielland, CT 55749</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Savannah Proctor</t>
+          <t>Dustin Burns</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>langbradley@example.net</t>
+          <t>debraknight@example.org</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>963 Robert Fork
-Claudiaberg, IA 17362</t>
+          <t>88585 Garcia Green Apt. 473
+Taylorhaven, MN 97393</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Erin Ward</t>
+          <t>Jessica Mcgee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lwilliams@example.com</t>
+          <t>daysandra@example.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PSC 6655, Box 1885
-APO AA 47588</t>
+          <t>51911 Marshall Stravenue
+Port Davidside, OH 79411</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Christina Griffith</t>
+          <t>Robert Wright</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>michael60@example.com</t>
+          <t>jenniferholmes@example.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>726 Bishop Streets
-Pughstad, IN 60852</t>
+          <t>95064 Kane Green
+Davismouth, LA 59477</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>James Reyes</t>
+          <t>Traci Lewis</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nliu@example.net</t>
+          <t>gibbsjessica@example.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PSC 6796, Box 8257
-APO AP 41402</t>
+          <t>08092 Thomas Junctions
+South Cynthia, AR 46152</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Austin George</t>
+          <t>Amber Marsh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mary10@example.com</t>
+          <t>christophermckinney@example.org</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8761 Jonathan Walk Apt. 207
-Port Ericbury, MP 90716</t>
+          <t>8155 Margaret Crescent Apt. 844
+Murphyburgh, OH 93881</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jeffrey Arroyo</t>
+          <t>Colin Trujillo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jamie04@example.net</t>
+          <t>brightangela@example.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7788 Vanessa Island Suite 821
-Port Tyrone, MT 87548</t>
+          <t>337 Fernandez Flats
+East Debraland, NC 18987</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tracy Cooke</t>
+          <t>Jerry Silva</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mbuchanan@example.org</t>
+          <t>mario19@example.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>51052 Reed Valleys Suite 328
-Adamsberg, NH 62319</t>
+          <t>4822 Simpson Field Apt. 438
+North Vanessaville, MO 84411</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Autumn Moody</t>
+          <t>Richard Clarke</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>yhall@example.org</t>
+          <t>vlambert@example.net</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>210 Alvarado Trail
-Chanfurt, PR 30266</t>
+          <t>580 Justin Harbors
+Port John, RI 28307</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tyler Hickman</t>
+          <t>Paul Summers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wilsonscott@example.net</t>
+          <t>davenportdenise@example.net</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>421 Sheila Highway
-South Brittanystad, IN 00633</t>
+          <t>147 Tran Courts Suite 638
+Lake Markfort, MD 62988</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Heather Silva</t>
+          <t>Barry Lawson</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>zachary14@example.com</t>
+          <t>dramirez@example.org</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6813 Jessica Curve
-Lucashaven, NJ 31082</t>
+          <t>PSC 2019, Box 7455
+APO AP 74883</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jimmy Martin</t>
+          <t>Richard Wallace</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fclark@example.org</t>
+          <t>wilcoxluis@example.org</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>90351 Coleman Ways
-North Tarabury, NE 31211</t>
+          <t>698 Morgan Road Apt. 262
+Port Joycebury, SC 02377</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tracy Smith</t>
+          <t>Darryl Parker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>amberkelley@example.org</t>
+          <t>ryan29@example.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>099 Jacobs Manor
-Smallshire, MN 15047</t>
+          <t>90962 Molina Square
+Reynoldsville, ME 39373</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kristin Blake</t>
+          <t>Aaron Herrera</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>karen72@example.com</t>
+          <t>qortiz@example.net</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>61507 Houston Dam
-Penaland, IN 42210</t>
+          <t>65980 Ethan Underpass
+Jenniferbury, OH 99510</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Timothy Holt</t>
+          <t>Kenneth Thornton</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>huberdaisy@example.net</t>
+          <t>brendaoneal@example.org</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9016 Salazar Vista
-Jenniferfort, LA 79950</t>
+          <t>4658 Debbie Summit Suite 838
+Brownstad, NJ 40124</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Marcus Wright</t>
+          <t>Terry Caldwell</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>clementssarah@example.net</t>
+          <t>brightlacey@example.org</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>80465 Mendez Rapid
-Morenoton, HI 72788</t>
+          <t>5246 Amy Station
+East Nicoleberg, SD 55590</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amber Whitaker</t>
+          <t>Jennifer Chung</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pricedevon@example.net</t>
+          <t>jfinley@example.org</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>128 Lopez Mission
-South Jameschester, MP 01794</t>
+          <t>16647 Kimberly Springs Apt. 985
+Fitzgeraldmouth, UT 33280</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tina Myers</t>
+          <t>Luis Hernandez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>richardmacias@example.org</t>
+          <t>xjensen@example.org</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>75207 Gilmore Union
-Kelseyville, GU 29449</t>
+          <t>5994 Berg Islands
+Valdezberg, NE 24899</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brian Gray</t>
+          <t>Patrick Garcia</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>torresshannon@example.org</t>
+          <t>garciakathy@example.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>908 Sandra Mills
-Stephanieborough, NH 32206</t>
+          <t>06962 Simpson Unions Suite 503
+Loveside, GU 76936</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Amanda Woodard</t>
+          <t>Wendy Morgan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kmason@example.net</t>
+          <t>emilyreynolds@example.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8885 Amber Station
-Port Matthewberg, SD 62887</t>
+          <t>Unit 9865 Box 2916
+DPO AA 63417</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Beth Blevins</t>
+          <t>Chad Scott</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>michael15@example.org</t>
+          <t>holtbryan@example.net</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>643 Wang Groves
-Dennisbury, MA 12707</t>
+          <t>25402 Jon Corners
+New Nancyview, MD 56127</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>James Gonzalez</t>
+          <t>Jenny Kennedy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rgutierrez@example.com</t>
+          <t>douglas89@example.net</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9251 Tiffany Flat
-Cassandramouth, OH 15566</t>
+          <t>6844 George Gateway Suite 044
+Karenville, MP 11262</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tiffany Lopez</t>
+          <t>Hannah Weaver</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>robinsonsherry@example.com</t>
+          <t>hperez@example.net</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0650 Wright Mills
-Joneston, ME 51353</t>
+          <t>6495 Wang Stream Suite 631
+North Annview, NE 14082</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>James Oconnor</t>
+          <t>Jill Wright</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gentrydustin@example.net</t>
+          <t>ypaul@example.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>405 Johnson Circle Suite 653
-Robertsonmouth, MP 77651</t>
+          <t>4769 William Shoal Apt. 537
+North Scottland, MS 40044</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Margaret Burke</t>
+          <t>John Bell</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ian09@example.net</t>
+          <t>hudsonkevin@example.net</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7078 Norman Hollow Suite 589
-New Albert, MO 80487</t>
+          <t>62235 Brown Points Suite 934
+South Marthahaven, LA 76445</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shannon Molina</t>
+          <t>Elizabeth Gross</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>anthony41@example.org</t>
+          <t>henry36@example.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>89799 Amy Locks Suite 682
-East Jonathanberg, ND 94367</t>
+          <t>9638 David Island Apt. 451
+North Joel, VI 53973</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Connie Dillon</t>
+          <t>Alisha Stewart</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tyler53@example.com</t>
+          <t>ncollins@example.org</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0180 Scott Extensions
-West Kevinport, WY 41727</t>
+          <t>1721 Perez Keys
+Hillland, MH 18176</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Amy Hall</t>
+          <t>Christopher Rivera</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vsoto@example.org</t>
+          <t>tharris@example.org</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13592 Katherine Tunnel
-North Denniston, PA 83775</t>
+          <t>59449 Shane Keys
+Gibsonton, MH 75426</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Michelle Knox</t>
+          <t>Brian Forbes</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vhouston@example.com</t>
+          <t>mpatel@example.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>26727 Pena Stream Apt. 748
-West Zacharymouth, VA 25243</t>
+          <t>020 Randall Curve
+Miguelmouth, VT 92032</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Eileen Bailey</t>
+          <t>Joshua Berry</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>thomasbrandt@example.net</t>
+          <t>robertsolomon@example.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5684 Hale Motorway
-Burketown, GA 06370</t>
+          <t>05904 Michael Freeway
+Port Sarahshire, PW 68761</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Karla Lester</t>
+          <t>Alicia Rivas PhD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>williamwatkins@example.com</t>
+          <t>clittle@example.net</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>67765 Wong Common Suite 625
-New Sherrymouth, WV 86675</t>
+          <t>324 Gomez Springs
+Griffinside, NV 93920</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pam Wallace</t>
+          <t>Jacob Williams</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ugiles@example.org</t>
+          <t>andrewsdana@example.net</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6574 Mark Crescent
-Carrbury, IN 36806</t>
+          <t>8892 Sheri Spurs Suite 422
+South Tinaton, ME 12022</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gloria Jones</t>
+          <t>Sarah Castaneda</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>richardsryan@example.net</t>
+          <t>usteele@example.org</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>USNS Bell
-FPO AP 27416</t>
+          <t>09114 Daniel Rapid
+North Cynthiamouth, WI 36982</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Christopher Armstrong</t>
+          <t>Matthew Johnson</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>xtaylor@example.org</t>
+          <t>ggreen@example.net</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>USS Henderson
-FPO AE 95541</t>
+          <t>27328 Diana Manor Suite 247
+Bradleychester, AR 53462</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Michael Horton PhD</t>
+          <t>Zachary Castillo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jonescurtis@example.com</t>
+          <t>benjaminbranch@example.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16327 Wagner Junction Apt. 187
-Adambury, AZ 36863</t>
+          <t>127 Meagan Grove
+Michaelborough, DE 30327</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Candice Ryan</t>
+          <t>Nicole Harrison</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>connorponce@example.org</t>
+          <t>jamessmith@example.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20466 Watson Fort
-Lake Rossside, FM 16219</t>
+          <t>7172 Bonnie Fork
+South Kelliville, DE 82842</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jacob Scott</t>
+          <t>Zachary Khan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>michael51@example.com</t>
+          <t>robin72@example.org</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PSC 5233, Box 7523
-APO AE 47357</t>
+          <t>19377 Mccoy Hollow
+Davisshire, MP 01429</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Miss Vanessa Velasquez</t>
+          <t>Miguel Adams</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>justin64@example.org</t>
+          <t>yadams@example.net</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7297 Teresa Street
-Thomasview, NH 96522</t>
+          <t>61097 Hernandez Center
+Noahfort, GU 60295</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Debbie Ballard</t>
+          <t>Alexis Johnson</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>natalie97@example.net</t>
+          <t>garypotts@example.net</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>459 Harvey Courts
-Crystalshire, IN 82692</t>
+          <t>2194 Terrell Forest Apt. 072
+Port Nicole, CO 35868</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Alyssa Howard</t>
+          <t>Steven Levine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>brodriguez@example.com</t>
+          <t>jbaldwin@example.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>086 Byrd Meadow
-North Lori, PR 42210</t>
+          <t>Unit 3789 Box 4139
+DPO AE 19925</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Meghan Powell</t>
+          <t>Paul Nelson</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>martin04@example.net</t>
+          <t>dawnbaker@example.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>078 Cameron Parkways
-Schneiderhaven, WV 39144</t>
+          <t>927 Dawson Trace
+West Paulborough, NJ 23073</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Justin Hall</t>
+          <t>Thomas Lane</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jonathanrobinson@example.org</t>
+          <t>graykathleen@example.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>089 Jose Walk Apt. 460
-Nicholasside, VT 27375</t>
+          <t>465 Brown Shore Suite 765
+Port Angelabury, WY 96544</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jesse Thompson</t>
+          <t>Craig Hopkins</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lynnsmith@example.com</t>
+          <t>bridgeskyle@example.net</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>064 Rosario Forest Suite 451
-Andreaton, OK 95472</t>
+          <t>20379 Miller Square Suite 288
+Jacksonfort, WI 85137</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Charles Waters</t>
+          <t>Kyle Ramirez</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>swilliams@example.com</t>
+          <t>cassidylam@example.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>277 Brenda Summit
-Danieltown, UT 95602</t>
+          <t>66729 Jessica Port Suite 856
+West Jefferybury, WV 77907</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Linda Allen</t>
+          <t>Jessica Taylor</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>marquezeric@example.com</t>
+          <t>parkerkimberly@example.net</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>8078 Smith Port
-New Joshuamouth, MI 14109</t>
+          <t>031 Mark Camp
+West Dianahaven, MS 12541</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Patricia Cook</t>
+          <t>Brenda Morris</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>iellis@example.com</t>
+          <t>ymiller@example.net</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>77617 Flynn Extensions Apt. 274
-Port Aaron, FL 36611</t>
+          <t>8850 Christopher Springs Apt. 560
+North Jacqueline, GU 99730</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Heather Guerrero</t>
+          <t>Kimberly Huff</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>halljustin@example.net</t>
+          <t>jamesanderson@example.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>42188 Anthony Meadow Apt. 206
-Aaronhaven, NV 21055</t>
+          <t>Unit 4212 Box 2681
+DPO AP 76314</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Michael Smith</t>
+          <t>Cheryl Russell</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>danielwhite@example.com</t>
+          <t>echambers@example.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4929 Diana Burg Suite 811
-Chanberg, UT 78017</t>
+          <t>USNS Sanchez
+FPO AE 72931</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jacqueline Lowe</t>
+          <t>Mary Strong</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dennisrichardson@example.com</t>
+          <t>amy83@example.net</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>532 Smith Brooks Apt. 562
-Lake Shannonland, CA 14624</t>
+          <t>3471 Jimenez Islands
+Christopherside, DE 19769</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mary Evans</t>
+          <t>Paul Ortiz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ramirezdawn@example.net</t>
+          <t>jessica53@example.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>28224 Carla Locks Suite 254
-Harrisfurt, CT 06514</t>
+          <t>4269 Melissa Shoals
+Bowenberg, TN 78441</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>John Alvarez</t>
+          <t>Jacob Franklin</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>smurray@example.net</t>
+          <t>whitney40@example.com</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>24439 Smith Pines
-New Noahton, MI 09316</t>
+          <t>91900 Smith Alley Apt. 639
+North Jennifer, MA 38646</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gabrielle Burton</t>
+          <t>Brian Mcpherson</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jacobclark@example.net</t>
+          <t>lfrazier@example.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>627 Shelton Lock
-Davidville, PA 42484</t>
+          <t>939 Anna Port Apt. 924
+Lake Benjamin, PW 44210</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Steve Rogers</t>
+          <t>Mariah Hess</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tharris@example.net</t>
+          <t>donald73@example.net</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Unit 2031 Box 8509
-DPO AP 89276</t>
+          <t>64979 Brown Squares
+Hunterbury, ND 47938</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tammy Lowe</t>
+          <t>Jennifer Hamilton</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>adamsgloria@example.net</t>
+          <t>amymorrow@example.com</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8647 Kenneth Mountains
-South Joelview, TX 42567</t>
+          <t>95174 Hill Terrace
+Corybury, MH 87085</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Debra Olsen</t>
+          <t>Mark Smith</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>john88@example.com</t>
+          <t>johnsonthomas@example.com</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>576 Smith Hollow Suite 804
-Josehaven, HI 28859</t>
+          <t>7232 Martinez Fields Suite 179
+New Rachelview, PW 64505</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mr. Adam Guzman</t>
+          <t>Travis Martin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>gregorymiller@example.org</t>
+          <t>michaelneal@example.net</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>66519 Keith Well
-East James, PA 62751</t>
+          <t>049 Annette Fork Suite 279
+Andrewville, WY 69472</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Catherine Gallagher</t>
+          <t>Wanda Ali</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>zachary00@example.com</t>
+          <t>brian69@example.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>212 Coleman Squares
-Jackiemouth, OK 60393</t>
+          <t>Unit 9555 Box 3910
+DPO AP 62384</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Abigail Morris</t>
+          <t>Susan Campbell</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sanchezdavid@example.com</t>
+          <t>farmercameron@example.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3679 Jackson Extensions
-Russellport, IL 05960</t>
+          <t>USNV Lopez
+FPO AE 82414</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>James Good</t>
+          <t>Julie Hutchinson</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>kaitlyn71@example.net</t>
+          <t>deborah73@example.com</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23694 William Court
-Mariaside, AR 52714</t>
+          <t>42098 Sarah Viaduct
+New Alexandra, MI 34763</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Jennifer Kelly</t>
+          <t>Debbie Crawford</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rduncan@example.org</t>
+          <t>mtorres@example.net</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>07849 Tina Springs
-Port Ricardostad, OH 74481</t>
+          <t>2148 Mary Spur
+Lake Kara, TN 08347</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sharon Mckay</t>
+          <t>Andrew Schneider Jr.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>randy33@example.org</t>
+          <t>watsonnoah@example.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2249 James Courts Apt. 132
-Harrisonchester, MS 29233</t>
+          <t>38535 Karen Dale Apt. 245
+East Kevinborough, PA 15655</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Danielle Mays</t>
+          <t>Karen Russell</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>wwilliams@example.com</t>
+          <t>laradonna@example.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>273 Nguyen Ramp Apt. 535
-Schultzburgh, WV 07167</t>
+          <t>9203 Jackson Rest
+Port Nancyfurt, FL 57193</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Paul Kline</t>
+          <t>Aaron Ramos</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>dennis78@example.net</t>
+          <t>fblevins@example.com</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PSC 3893, Box 6082
-APO AP 31768</t>
+          <t>5709 Jessica Islands
+North Teresa, NM 83588</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Brett Johnson</t>
+          <t>Robert Hall</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joshuasmith@example.net</t>
+          <t>millerdaniel@example.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>622 Davis Radial
-East Gabrielafort, PR 01119</t>
+          <t>1945 Terry Courts Apt. 833
+West Jordan, NJ 99230</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Michelle Stuart</t>
+          <t>William Reyes PhD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>robinalexander@example.net</t>
+          <t>jennifer13@example.net</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9387 Carter Glen Apt. 234
-New Curtis, ME 59833</t>
+          <t>USNV Lee
+FPO AA 35517</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Colleen Anderson</t>
+          <t>Melanie Thomas</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>april41@example.org</t>
+          <t>smithsuzanne@example.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>972 Vincent Ridges Suite 139
-Jessicafurt, NV 36225</t>
+          <t>56798 Jamie Square
+Port Travis, WY 59449</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Amanda Walton</t>
+          <t>Dwayne Ramirez</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adamharrison@example.org</t>
+          <t>smartin@example.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4665 Perez Brook Apt. 196
-North Pamela, NJ 90184</t>
+          <t>66286 Bailey Brook Apt. 474
+Perryport, OH 21347</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Deanna Peters</t>
+          <t>Joshua Wilson</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>maryrodgers@example.org</t>
+          <t>jilldillon@example.net</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>945 Woods Stream
-West Joshua, VA 69038</t>
+          <t>4567 Tapia Courts Suite 552
+Williamsland, TX 84929</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jacqueline Flores</t>
+          <t>Paul Dillon</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>elaine09@example.com</t>
+          <t>yhernandez@example.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>243 Murphy Locks Suite 343
-Lake Anthonyhaven, ME 53291</t>
+          <t>523 Hoffman Walk Apt. 707
+Mccallbury, ND 02169</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cynthia Michael</t>
+          <t>Christopher Le</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ashleykim@example.com</t>
+          <t>alewis@example.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7139 Raymond Bypass
-Nicholasville, HI 77706</t>
+          <t>865 Stephanie Mission Apt. 148
+Brandonview, OR 97260</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Darryl Stuart</t>
+          <t>Matthew Yates</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>colleen21@example.org</t>
+          <t>amber52@example.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>392 Adams Courts Suite 758
-West Donaldton, MP 41130</t>
+          <t>5848 Jodi Falls
+Kellymouth, AR 75490</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Megan Salazar</t>
+          <t>Jennifer Hardy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>traceyhamilton@example.com</t>
+          <t>marissa95@example.net</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>06666 Simmons Square Apt. 693
-Timothyfort, MI 47757</t>
+          <t>USCGC Austin
+FPO AE 52878</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Destiny Turner</t>
+          <t>Lisa Mason</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>wintersdonna@example.org</t>
+          <t>kenneth68@example.com</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0605 James Lodge
-South Lacey, LA 68306</t>
+          <t>533 Brian Causeway
+Flemingbury, AR 12019</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sandra Cook</t>
+          <t>Christian Hall</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>david42@example.net</t>
+          <t>james14@example.net</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>60044 Edgar Turnpike Apt. 990
-South Brittany, PA 61438</t>
+          <t>38269 Heath Falls Suite 762
+Jimenezhaven, CO 07114</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bruce Saunders</t>
+          <t>Tony Watts</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ballarddavid@example.org</t>
+          <t>michaelflores@example.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>USS Villa
-FPO AA 52062</t>
+          <t>904 Shane Prairie
+Burnettfort, ND 41925</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Anthony Clark</t>
+          <t>Brandon Austin</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>williamsjennifer@example.net</t>
+          <t>hamiltonjames@example.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>084 Espinoza Ports
-Danielville, WV 07690</t>
+          <t>4475 Tyler Skyway Suite 462
+West Rickyburgh, LA 03849</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Allison Butler</t>
+          <t>Ashlee Holmes</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lauramcdonald@example.org</t>
+          <t>andreaking@example.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>9343 Kimberly Drive
-Robinland, FM 76841</t>
+          <t>282 Joseph Mount Apt. 563
+Zimmermanbury, FL 19059</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jason White</t>
+          <t>Derek Hill</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>lisaware@example.com</t>
+          <t>lperkins@example.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>35307 Hale Springs
-North James, CT 52924</t>
+          <t>03336 Walls Freeway
+Nicolefort, DC 54540</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Karina Taylor</t>
+          <t>Jennifer Clark</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bradley63@example.org</t>
+          <t>cheryl81@example.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>67891 Kim Trafficway
-East Richard, OH 17360</t>
+          <t>PSC 2316, Box 7076
+APO AA 35954</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Zachary Rivers</t>
+          <t>Brian Gomez</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>briannapineda@example.org</t>
+          <t>martinanne@example.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>59007 Daniels Rapids
-Rhondafurt, HI 26580</t>
+          <t>13483 Sarah Manors Suite 035
+Port Georgehaven, AL 33983</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Charles Johnson Jr.</t>
+          <t>Jamie Bray</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tiffany04@example.com</t>
+          <t>danielle24@example.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>54177 Jackson Cliffs Apt. 051
-Lake Eric, MP 72757</t>
+          <t>7766 Emily Mission
+East Alisonview, ME 28400</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rebecca Garza</t>
+          <t>Allison Walker</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>sabrinavance@example.org</t>
+          <t>tfranco@example.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>00149 Michael Cape Suite 457
-North Chadtown, AK 34739</t>
+          <t>59965 Werner Mountain Apt. 014
+West Maryfurt, KS 62468</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Zachary Smith</t>
+          <t>Kerry Hunt</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jimmy66@example.com</t>
+          <t>browngeorge@example.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2316 Preston Hollow
-Port Wanda, OK 55363</t>
+          <t>67048 Victor Rue
+East Patrick, NV 39336</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mitchell Morris</t>
+          <t>Janet Johnson</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>clinechad@example.net</t>
+          <t>david56@example.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>136 Shannon Burgs Apt. 246
-Manningmouth, WA 22167</t>
+          <t>7387 Brandy Ridge
+North Wesleyshire, NC 91689</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Catherine Cook</t>
+          <t>Terri Wagner</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mweber@example.org</t>
+          <t>lmoreno@example.org</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>787 Armstrong Hills
-North Annetteview, MP 21186</t>
+          <t>69562 Pope Ridges Apt. 629
+South Katelyn, PA 20324</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dr. Lydia Pierce</t>
+          <t>Dustin Ortiz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>brian16@example.org</t>
+          <t>tmitchell@example.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>26140 Phillips Light Suite 685
-Tylerview, NH 47808</t>
+          <t>USCGC Mills
+FPO AA 77660</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Laura Gray</t>
+          <t>Phillip Noble</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>blackwellamy@example.com</t>
+          <t>lauren76@example.org</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>081 Deborah Run
-Port Nancyfort, NE 13541</t>
+          <t>877 Patrick Parkway
+Callahanport, GA 90317</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jeffrey Harrison</t>
+          <t>Misty Taylor</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>lorioconnor@example.com</t>
+          <t>garywalters@example.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>514 Schmidt Rapids Suite 219
-Hillfurt, MD 52016</t>
+          <t>194 Pennington Flat Suite 466
+Lake James, TX 78383</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jessica Freeman</t>
+          <t>Debbie Mcmillan</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ryanherrera@example.net</t>
+          <t>mjensen@example.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>65072 Crystal Bridge
-Port Kenneth, WA 73522</t>
+          <t>5015 Manning Viaduct
+Timothyland, NY 71414</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Samantha Delgado</t>
+          <t>Amy Smith</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ronnierhodes@example.com</t>
+          <t>jackrichardson@example.net</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>468 Davila Grove Suite 323
-North Michael, VI 05284</t>
+          <t>545 Lozano Corners
+Scottview, IL 58013</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Michael Rich</t>
+          <t>Jacqueline Sutton</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>jimmyramos@example.org</t>
+          <t>kendrawatts@example.org</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>79479 Phillips Dale Apt. 261
-Kylemouth, MA 40270</t>
+          <t>935 Paul Village Suite 727
+Lake Stephanie, MP 47658</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Charles Curtis</t>
+          <t>Scott Oliver</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>beltranisabella@example.org</t>
+          <t>heather90@example.net</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>91005 Brandon Drives Apt. 788
-Birdhaven, IN 91904</t>
+          <t>7919 Brown Gateway
+Walkershire, AS 96846</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Desiree Rowe MD</t>
+          <t>Kenneth Russell</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>webbdeborah@example.net</t>
+          <t>smiller@example.net</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4381 Davidson Squares Suite 331
-Port Bradley, AS 53398</t>
+          <t>5979 Jacob Freeway
+Anthonyshire, NY 53994</t>
         </is>
       </c>
     </row>
